--- a/Husnain_Ahmed_21308666/Test Case Design Specification.xlsx
+++ b/Husnain_Ahmed_21308666/Test Case Design Specification.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Husnain\Desktop\Uni work - Final year\Software Testing and Quality Assurance\Assignment 2 test suite\Husnain_Ahmed_21308666\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0FEE545-920B-48E6-933B-A950A80AE9FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4751858-B7A4-4122-BA3A-345DD675ACB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{EB9C9277-8986-4B13-82A0-E04A62D9F7B8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EB9C9277-8986-4B13-82A0-E04A62D9F7B8}"/>
   </bookViews>
   <sheets>
     <sheet name="Manual Tests" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,6 @@
     <sheet name="Utils Tests" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="961" uniqueCount="545">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="961" uniqueCount="546">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -935,9 +934,6 @@
     <t xml:space="preserve">  '1', '1', 'A', '10',  '2', 'A', '10', 'Alpha', 'n', '3'</t>
   </si>
   <si>
-    <t>CreateRecycling_AllGeneration_TC001</t>
-  </si>
-  <si>
     <t>1) Start the program. 2) Enter '1' to navigate to the 'Scenario Options' screen. 3) Enter '2' to navigate to the 'Recycling Centres' screen. 4) Enter Incorrect Test Data.  5) Check the text for any spelling errors.</t>
   </si>
   <si>
@@ -948,9 +944,6 @@
   </si>
   <si>
     <t>Recycling centres are all created.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 'Alpha' and 'Beta' generation centres have been created successfully whilst 'Gamma' centres have not and the systm responds with "Invalid choice. Please try again." . The system does not allow 'Gamma' Generation centres to be created.</t>
   </si>
   <si>
     <t xml:space="preserve"> Historic = Location.A, 1000
@@ -1121,9 +1114,6 @@
   </si>
   <si>
     <t xml:space="preserve">  The travel time is '4.0'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  The travel time is '0.0', this is not in accordance with the memorandum of understanding.</t>
   </si>
   <si>
     <t>Location.A</t>
@@ -1424,9 +1414,6 @@
   </si>
   <si>
     <t xml:space="preserve"> '1', '1', 'A', '5000', '2', 'A', '12', 'Alpha', 'y', 'B', '10', 'Beta', 'n', '3'</t>
-  </si>
-  <si>
-    <t>Ensuring that Recycling centres can be initialised with all possible generaitons</t>
   </si>
   <si>
     <t xml:space="preserve"> 'H'</t>
@@ -1609,9 +1596,6 @@
     <t>1) Invoke the 'compareGeneration' method with the passed in parameters as the value of the 2 generations that will be compared. 2)  Assert that the returned integer value is equal to what is expected.</t>
   </si>
   <si>
-    <t>Utils_CompareGenerations_AllValidGenerations_ReturnsZero</t>
-  </si>
-  <si>
     <t>Testing if 'compareGenerations' returns 0 when invalid (non existing) generations are passed in.</t>
   </si>
   <si>
@@ -1789,6 +1773,24 @@
   </si>
   <si>
     <t>The scenario runs successfully.</t>
+  </si>
+  <si>
+    <t>The travel time is '0.0', this is not in accordance with the memorandum of understanding.</t>
+  </si>
+  <si>
+    <t>Utils_CompareGenerations_InvalidGenerations_ReturnsZero</t>
+  </si>
+  <si>
+    <t>The system will run without crashing and display the invalid input text.</t>
+  </si>
+  <si>
+    <t>Ensuring that Recycling centres can be initialised with all possible generations</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Alpha' and 'Beta' generation centres have been created successfully whilst 'Gamma' centres have not and the system responds with "Invalid choice. Please try again." . The system does not allow 'Gamma' Generation centres to be created.</t>
+  </si>
+  <si>
+    <t>CreateRecycling_AllGeneration_TC_001</t>
   </si>
 </sst>
 </file>
@@ -2639,8 +2641,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81C984D4-C6C6-4D1D-921F-42502C4ADECB}">
   <dimension ref="A1:I51"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2842,10 +2844,10 @@
         <v>32</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>273</v>
@@ -2906,7 +2908,7 @@
         <v>50</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>47</v>
+        <v>542</v>
       </c>
       <c r="G9" s="5" t="s">
         <v>54</v>
@@ -2941,7 +2943,7 @@
         <v>38</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="I10" s="8" t="s">
         <v>121</v>
@@ -3048,7 +3050,7 @@
         <v>85</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="F14" s="5" t="s">
         <v>52</v>
@@ -3123,28 +3125,28 @@
     </row>
     <row r="17" spans="1:9" ht="114" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>292</v>
+        <v>545</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>443</v>
+        <v>543</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>24</v>
       </c>
       <c r="D17" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="E17" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="F17" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="G17" s="5" t="s">
         <v>294</v>
       </c>
-      <c r="F17" s="5" t="s">
-        <v>296</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>295</v>
-      </c>
       <c r="H17" s="11" t="s">
-        <v>297</v>
+        <v>544</v>
       </c>
       <c r="I17" s="8" t="s">
         <v>56</v>
@@ -3635,8 +3637,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DA356C9-0F30-4D79-A8B7-61B700279E30}">
   <dimension ref="A1:L51"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView topLeftCell="A30" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3694,7 +3696,7 @@
         <v>106</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>96</v>
@@ -3703,7 +3705,7 @@
         <v>109</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="I2" s="8" t="s">
         <v>76</v>
@@ -3723,16 +3725,16 @@
         <v>107</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>108</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="I3" s="8" t="s">
         <v>76</v>
@@ -3752,7 +3754,7 @@
         <v>113</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>99</v>
@@ -3761,7 +3763,7 @@
         <v>109</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="I4" s="8" t="s">
         <v>76</v>
@@ -3781,16 +3783,16 @@
         <v>114</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>108</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="I5" s="8" t="s">
         <v>76</v>
@@ -3810,7 +3812,7 @@
         <v>116</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>102</v>
@@ -3819,7 +3821,7 @@
         <v>109</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="I6" s="8" t="s">
         <v>76</v>
@@ -3839,16 +3841,16 @@
         <v>115</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="G7" s="5" t="s">
         <v>108</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="I7" s="8" t="s">
         <v>76</v>
@@ -3877,7 +3879,7 @@
         <v>140</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="I8" s="8" t="s">
         <v>76</v>
@@ -3906,7 +3908,7 @@
         <v>141</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="I9" s="8" t="s">
         <v>76</v>
@@ -3935,7 +3937,7 @@
         <v>142</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="I10" s="8" t="s">
         <v>76</v>
@@ -3964,7 +3966,7 @@
         <v>143</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>346</v>
+        <v>540</v>
       </c>
       <c r="I11" s="8" t="s">
         <v>56</v>
@@ -3984,16 +3986,16 @@
         <v>147</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="G12" s="5" t="s">
         <v>150</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="I12" s="8" t="s">
         <v>76</v>
@@ -4013,16 +4015,16 @@
         <v>148</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G13" s="5" t="s">
         <v>150</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="I13" s="8" t="s">
         <v>76</v>
@@ -4042,16 +4044,16 @@
         <v>149</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="G14" s="5" t="s">
         <v>150</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="I14" s="8" t="s">
         <v>76</v>
@@ -4071,7 +4073,7 @@
         <v>238</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="F15" s="11" t="s">
         <v>229</v>
@@ -4080,7 +4082,7 @@
         <v>160</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="I15" s="8" t="s">
         <v>76</v>
@@ -4100,7 +4102,7 @@
         <v>169</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F16" s="11" t="s">
         <v>229</v>
@@ -4109,7 +4111,7 @@
         <v>170</v>
       </c>
       <c r="H16" s="11" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="I16" s="8" t="s">
         <v>76</v>
@@ -4129,7 +4131,7 @@
         <v>237</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="F17" s="11" t="s">
         <v>229</v>
@@ -4138,7 +4140,7 @@
         <v>178</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="I17" s="8" t="s">
         <v>76</v>
@@ -4158,7 +4160,7 @@
         <v>236</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="F18" s="11" t="s">
         <v>229</v>
@@ -4167,7 +4169,7 @@
         <v>177</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="I18" s="8" t="s">
         <v>76</v>
@@ -4187,7 +4189,7 @@
         <v>185</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F19" s="5" t="s">
         <v>182</v>
@@ -4196,7 +4198,7 @@
         <v>181</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="I19" s="8" t="s">
         <v>76</v>
@@ -4216,7 +4218,7 @@
         <v>205</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="F20" s="5" t="s">
         <v>196</v>
@@ -4225,7 +4227,7 @@
         <v>186</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="I20" s="8" t="s">
         <v>76</v>
@@ -4245,7 +4247,7 @@
         <v>206</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="F21" s="5" t="s">
         <v>96</v>
@@ -4254,7 +4256,7 @@
         <v>193</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="I21" s="8" t="s">
         <v>76</v>
@@ -4274,16 +4276,16 @@
         <v>207</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="G22" s="5" t="s">
         <v>194</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="I22" s="8" t="s">
         <v>76</v>
@@ -4303,16 +4305,16 @@
         <v>208</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="G23" s="5" t="s">
         <v>195</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="I23" s="8" t="s">
         <v>76</v>
@@ -4332,7 +4334,7 @@
         <v>222</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="F24" s="11" t="s">
         <v>229</v>
@@ -4341,13 +4343,13 @@
         <v>223</v>
       </c>
       <c r="H24" s="11" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="I24" s="8" t="s">
         <v>76</v>
       </c>
       <c r="L24" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="75" x14ac:dyDescent="0.25">
@@ -4364,7 +4366,7 @@
         <v>225</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="F25" s="11" t="s">
         <v>229</v>
@@ -4373,7 +4375,7 @@
         <v>224</v>
       </c>
       <c r="H25" s="11" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="I25" s="8" t="s">
         <v>76</v>
@@ -4393,7 +4395,7 @@
         <v>226</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="F26" s="11" t="s">
         <v>229</v>
@@ -4402,7 +4404,7 @@
         <v>227</v>
       </c>
       <c r="H26" s="11" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="I26" s="8" t="s">
         <v>76</v>
@@ -4422,16 +4424,16 @@
         <v>228</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="F27" s="5" t="s">
         <v>230</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="I27" s="8" t="s">
         <v>76</v>
@@ -4451,7 +4453,7 @@
         <v>232</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="F28" s="5" t="s">
         <v>133</v>
@@ -4460,7 +4462,7 @@
         <v>287</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="I28" s="8" t="s">
         <v>76</v>
@@ -4480,7 +4482,7 @@
         <v>232</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="F29" s="5" t="s">
         <v>134</v>
@@ -4489,7 +4491,7 @@
         <v>287</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="I29" s="8" t="s">
         <v>56</v>
@@ -4509,7 +4511,7 @@
         <v>232</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="F30" s="5" t="s">
         <v>135</v>
@@ -4518,7 +4520,7 @@
         <v>287</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="I30" s="8" t="s">
         <v>76</v>
@@ -4538,7 +4540,7 @@
         <v>232</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="F31" s="5" t="s">
         <v>233</v>
@@ -4547,7 +4549,7 @@
         <v>287</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="I31" s="8" t="s">
         <v>56</v>
@@ -4555,10 +4557,10 @@
     </row>
     <row r="32" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C32" s="5" t="s">
         <v>221</v>
@@ -4567,16 +4569,16 @@
         <v>228</v>
       </c>
       <c r="E32" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="G32" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="F32" s="5" t="s">
-        <v>366</v>
-      </c>
-      <c r="G32" s="5" t="s">
-        <v>368</v>
-      </c>
       <c r="H32" s="5" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="I32" s="8" t="s">
         <v>56</v>
@@ -4584,10 +4586,10 @@
     </row>
     <row r="33" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="C33" s="5" t="s">
         <v>217</v>
@@ -4596,16 +4598,16 @@
         <v>205</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="G33" s="5" t="s">
         <v>186</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="I33" s="8" t="s">
         <v>56</v>
@@ -4613,28 +4615,28 @@
     </row>
     <row r="34" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="C34" s="5" t="s">
         <v>168</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="E34" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="G34" s="5" t="s">
         <v>377</v>
       </c>
-      <c r="F34" s="5" t="s">
-        <v>379</v>
-      </c>
-      <c r="G34" s="5" t="s">
+      <c r="H34" s="5" t="s">
         <v>380</v>
-      </c>
-      <c r="H34" s="5" t="s">
-        <v>383</v>
       </c>
       <c r="I34" s="8" t="s">
         <v>56</v>
@@ -4904,7 +4906,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AFEFF13-B111-4451-98A1-F9EED018BD57}">
   <dimension ref="A1:I51"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+    <sheetView topLeftCell="A3" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -4963,16 +4965,16 @@
         <v>251</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>239</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="I2" s="8" t="s">
         <v>76</v>
@@ -4992,7 +4994,7 @@
         <v>250</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>246</v>
@@ -5001,7 +5003,7 @@
         <v>242</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="I3" s="8" t="s">
         <v>76</v>
@@ -5021,16 +5023,16 @@
         <v>249</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>245</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="I4" s="8" t="s">
         <v>76</v>
@@ -5050,7 +5052,7 @@
         <v>255</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>256</v>
@@ -5079,7 +5081,7 @@
         <v>262</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>16</v>
@@ -5722,8 +5724,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{488039C5-DA14-49C1-B405-E6D376222033}">
   <dimension ref="A1:I71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="I35" sqref="I35"/>
+    <sheetView topLeftCell="A21" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5770,7 +5772,7 @@
     </row>
     <row r="2" spans="1:9" ht="168.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>282</v>
@@ -5782,13 +5784,13 @@
         <v>279</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>104</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>104</v>
@@ -5799,7 +5801,7 @@
     </row>
     <row r="3" spans="1:9" ht="164.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>283</v>
@@ -5811,13 +5813,13 @@
         <v>278</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>105</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="H3" s="5" t="s">
         <v>105</v>
@@ -5840,7 +5842,7 @@
         <v>280</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>117</v>
@@ -5863,22 +5865,22 @@
         <v>285</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="I5" s="8" t="s">
         <v>76</v>
@@ -5886,28 +5888,28 @@
     </row>
     <row r="6" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
+        <v>387</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>390</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>391</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>400</v>
-      </c>
-      <c r="D6" s="5" t="s">
+      <c r="E6" s="11" t="s">
+        <v>462</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="G6" s="5" t="s">
         <v>393</v>
       </c>
-      <c r="E6" s="11" t="s">
-        <v>466</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>395</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>396</v>
-      </c>
       <c r="H6" s="5" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="I6" s="8" t="s">
         <v>76</v>
@@ -5915,28 +5917,28 @@
     </row>
     <row r="7" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="E7" s="11" t="s">
         <v>11</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="I7" s="8" t="s">
         <v>56</v>
@@ -5944,28 +5946,28 @@
     </row>
     <row r="8" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
+        <v>400</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>401</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="D8" s="5" t="s">
         <v>403</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="E8" s="11" t="s">
+        <v>427</v>
+      </c>
+      <c r="F8" s="5" t="s">
         <v>404</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="G8" s="5" t="s">
         <v>405</v>
       </c>
-      <c r="D8" s="5" t="s">
-        <v>406</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>430</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>407</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>408</v>
-      </c>
       <c r="H8" s="5" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="I8" s="8" t="s">
         <v>76</v>
@@ -5973,28 +5975,28 @@
     </row>
     <row r="9" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
+        <v>409</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>410</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>411</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>413</v>
+      </c>
+      <c r="E9" s="11" t="s">
         <v>412</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>413</v>
-      </c>
-      <c r="C9" s="5" t="s">
+      <c r="F9" s="5" t="s">
+        <v>415</v>
+      </c>
+      <c r="G9" s="5" t="s">
         <v>414</v>
       </c>
-      <c r="D9" s="5" t="s">
-        <v>416</v>
-      </c>
-      <c r="E9" s="11" t="s">
+      <c r="H9" s="5" t="s">
         <v>415</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>418</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>417</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>418</v>
       </c>
       <c r="I9" s="8" t="s">
         <v>76</v>
@@ -6002,28 +6004,28 @@
     </row>
     <row r="10" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>418</v>
+      </c>
+      <c r="D10" s="5" t="s">
         <v>419</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="E10" s="11" t="s">
         <v>420</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>421</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>422</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>423</v>
-      </c>
       <c r="F10" s="5" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="I10" s="8" t="s">
         <v>76</v>
@@ -6031,28 +6033,28 @@
     </row>
     <row r="11" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="I11" s="8" t="s">
         <v>76</v>
@@ -6060,28 +6062,28 @@
     </row>
     <row r="12" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="I12" s="8" t="s">
         <v>76</v>
@@ -6089,28 +6091,28 @@
     </row>
     <row r="13" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>430</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>461</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>433</v>
+      </c>
+      <c r="E13" s="11" t="s">
         <v>432</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>433</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>465</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>436</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>435</v>
-      </c>
       <c r="F13" s="5" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="I13" s="8" t="s">
         <v>76</v>
@@ -6118,28 +6120,28 @@
     </row>
     <row r="14" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="I14" s="8" t="s">
         <v>76</v>
@@ -6147,28 +6149,28 @@
     </row>
     <row r="15" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="I15" s="8" t="s">
         <v>76</v>
@@ -6176,28 +6178,28 @@
     </row>
     <row r="16" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="I16" s="8" t="s">
         <v>76</v>
@@ -6205,28 +6207,28 @@
     </row>
     <row r="17" spans="1:9" ht="195" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="I17" s="8" t="s">
         <v>76</v>
@@ -6234,28 +6236,28 @@
     </row>
     <row r="18" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>459</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>460</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="E18" s="11" t="s">
         <v>462</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="F18" s="5" t="s">
         <v>463</v>
       </c>
-      <c r="C18" s="5" t="s">
-        <v>464</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>434</v>
-      </c>
-      <c r="E18" s="11" t="s">
-        <v>466</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>467</v>
-      </c>
       <c r="G18" s="5" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="I18" s="8" t="s">
         <v>76</v>
@@ -6263,28 +6265,28 @@
     </row>
     <row r="19" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="I19" s="8" t="s">
         <v>56</v>
@@ -6292,28 +6294,28 @@
     </row>
     <row r="20" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="C20" s="5" t="s">
+        <v>481</v>
+      </c>
+      <c r="D20" s="5" t="s">
         <v>485</v>
       </c>
-      <c r="D20" s="5" t="s">
-        <v>489</v>
-      </c>
       <c r="E20" s="5" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="I20" s="8" t="s">
         <v>76</v>
@@ -6321,28 +6323,28 @@
     </row>
     <row r="21" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
+        <v>473</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>474</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>480</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>486</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>462</v>
+      </c>
+      <c r="F21" s="5" t="s">
         <v>477</v>
       </c>
-      <c r="B21" s="5" t="s">
-        <v>478</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>484</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>490</v>
-      </c>
-      <c r="E21" s="11" t="s">
-        <v>466</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>481</v>
-      </c>
       <c r="G21" s="5" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="I21" s="8" t="s">
         <v>76</v>
@@ -6350,28 +6352,28 @@
     </row>
     <row r="22" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
+        <v>478</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>479</v>
+      </c>
+      <c r="C22" s="5" t="s">
         <v>482</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="D22" s="5" t="s">
+        <v>484</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>476</v>
+      </c>
+      <c r="F22" s="5" t="s">
         <v>483</v>
       </c>
-      <c r="C22" s="5" t="s">
-        <v>486</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>488</v>
-      </c>
-      <c r="E22" s="11" t="s">
-        <v>480</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>487</v>
-      </c>
       <c r="G22" s="5" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="I22" s="8" t="s">
         <v>76</v>
@@ -6379,28 +6381,28 @@
     </row>
     <row r="23" spans="1:9" ht="244.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
+        <v>487</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>488</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>489</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>494</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>492</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>490</v>
+      </c>
+      <c r="G23" s="5" t="s">
         <v>491</v>
       </c>
-      <c r="B23" s="5" t="s">
-        <v>492</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>493</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>498</v>
-      </c>
-      <c r="E23" s="11" t="s">
-        <v>496</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>494</v>
-      </c>
-      <c r="G23" s="5" t="s">
-        <v>495</v>
-      </c>
       <c r="H23" s="5" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="I23" s="8" t="s">
         <v>76</v>
@@ -6408,28 +6410,28 @@
     </row>
     <row r="24" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
+        <v>541</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>495</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>489</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>494</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>493</v>
+      </c>
+      <c r="F24" s="11" t="s">
         <v>499</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="G24" s="5" t="s">
+        <v>491</v>
+      </c>
+      <c r="H24" s="5" t="s">
         <v>500</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>493</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>498</v>
-      </c>
-      <c r="E24" s="11" t="s">
-        <v>497</v>
-      </c>
-      <c r="F24" s="11" t="s">
-        <v>504</v>
-      </c>
-      <c r="G24" s="5" t="s">
-        <v>495</v>
-      </c>
-      <c r="H24" s="5" t="s">
-        <v>505</v>
       </c>
       <c r="I24" s="8" t="s">
         <v>56</v>
@@ -6437,28 +6439,28 @@
     </row>
     <row r="25" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
+        <v>496</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>497</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>489</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>494</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>498</v>
+      </c>
+      <c r="F25" s="11" t="s">
+        <v>499</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>491</v>
+      </c>
+      <c r="H25" s="5" t="s">
         <v>501</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>502</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>493</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>498</v>
-      </c>
-      <c r="E25" s="11" t="s">
-        <v>503</v>
-      </c>
-      <c r="F25" s="11" t="s">
-        <v>504</v>
-      </c>
-      <c r="G25" s="5" t="s">
-        <v>495</v>
-      </c>
-      <c r="H25" s="5" t="s">
-        <v>506</v>
       </c>
       <c r="I25" s="8" t="s">
         <v>56</v>
@@ -6466,28 +6468,28 @@
     </row>
     <row r="26" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="F26" s="11" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="I26" s="8" t="s">
         <v>56</v>
@@ -6495,28 +6497,28 @@
     </row>
     <row r="27" spans="1:9" ht="245.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="I27" s="8" t="s">
         <v>76</v>
@@ -6524,28 +6526,28 @@
     </row>
     <row r="28" spans="1:9" ht="255" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="I28" s="8" t="s">
         <v>76</v>
@@ -6553,28 +6555,28 @@
     </row>
     <row r="29" spans="1:9" ht="264.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="I29" s="8" t="s">
         <v>76</v>
@@ -6582,28 +6584,28 @@
     </row>
     <row r="30" spans="1:9" ht="180" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="C30" s="5" t="s">
+        <v>524</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>528</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>527</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>490</v>
+      </c>
+      <c r="G30" s="5" t="s">
         <v>529</v>
       </c>
-      <c r="D30" s="5" t="s">
-        <v>533</v>
-      </c>
-      <c r="E30" s="11" t="s">
-        <v>532</v>
-      </c>
-      <c r="F30" s="5" t="s">
-        <v>494</v>
-      </c>
-      <c r="G30" s="5" t="s">
-        <v>534</v>
-      </c>
       <c r="H30" s="5" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="I30" s="8" t="s">
         <v>76</v>
@@ -6611,28 +6613,28 @@
     </row>
     <row r="31" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="C31" s="5" t="s">
+        <v>524</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>528</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>531</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>490</v>
+      </c>
+      <c r="G31" s="5" t="s">
         <v>529</v>
       </c>
-      <c r="D31" s="5" t="s">
-        <v>533</v>
-      </c>
-      <c r="E31" s="11" t="s">
-        <v>536</v>
-      </c>
-      <c r="F31" s="5" t="s">
-        <v>494</v>
-      </c>
-      <c r="G31" s="5" t="s">
-        <v>534</v>
-      </c>
       <c r="H31" s="5" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="I31" s="8" t="s">
         <v>76</v>
@@ -6640,28 +6642,28 @@
     </row>
     <row r="32" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="C32" s="5" t="s">
+        <v>524</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>528</v>
+      </c>
+      <c r="E32" s="11" t="s">
+        <v>532</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>490</v>
+      </c>
+      <c r="G32" s="5" t="s">
         <v>529</v>
       </c>
-      <c r="D32" s="5" t="s">
-        <v>533</v>
-      </c>
-      <c r="E32" s="11" t="s">
-        <v>537</v>
-      </c>
-      <c r="F32" s="5" t="s">
-        <v>494</v>
-      </c>
-      <c r="G32" s="5" t="s">
-        <v>534</v>
-      </c>
       <c r="H32" s="5" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="I32" s="8" t="s">
         <v>76</v>
@@ -6669,28 +6671,28 @@
     </row>
     <row r="33" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="C33" s="5" t="s">
+        <v>524</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>528</v>
+      </c>
+      <c r="E33" s="11" t="s">
+        <v>531</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>490</v>
+      </c>
+      <c r="G33" s="5" t="s">
         <v>529</v>
       </c>
-      <c r="D33" s="5" t="s">
-        <v>533</v>
-      </c>
-      <c r="E33" s="11" t="s">
-        <v>536</v>
-      </c>
-      <c r="F33" s="5" t="s">
-        <v>494</v>
-      </c>
-      <c r="G33" s="5" t="s">
-        <v>534</v>
-      </c>
       <c r="H33" s="5" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="I33" s="8" t="s">
         <v>76</v>
@@ -6698,28 +6700,28 @@
     </row>
     <row r="34" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
+        <v>519</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>520</v>
+      </c>
+      <c r="C34" s="5" t="s">
         <v>524</v>
       </c>
-      <c r="B34" s="5" t="s">
-        <v>525</v>
-      </c>
-      <c r="C34" s="5" t="s">
+      <c r="D34" s="5" t="s">
+        <v>528</v>
+      </c>
+      <c r="E34" s="11" t="s">
+        <v>533</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>490</v>
+      </c>
+      <c r="G34" s="5" t="s">
         <v>529</v>
       </c>
-      <c r="D34" s="5" t="s">
-        <v>533</v>
-      </c>
-      <c r="E34" s="11" t="s">
-        <v>538</v>
-      </c>
-      <c r="F34" s="5" t="s">
-        <v>494</v>
-      </c>
-      <c r="G34" s="5" t="s">
-        <v>534</v>
-      </c>
       <c r="H34" s="5" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="I34" s="8" t="s">
         <v>76</v>
@@ -6727,28 +6729,28 @@
     </row>
     <row r="35" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="B35" s="5" t="s">
+        <v>534</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>536</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>538</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>537</v>
+      </c>
+      <c r="F35" s="5" t="s">
         <v>539</v>
       </c>
-      <c r="C35" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>543</v>
-      </c>
-      <c r="E35" s="5" t="s">
-        <v>542</v>
-      </c>
-      <c r="F35" s="5" t="s">
-        <v>544</v>
-      </c>
       <c r="G35" s="5" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="H35" s="5" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="I35" s="8" t="s">
         <v>76</v>
